--- a/salidas/prediccion.xlsx
+++ b/salidas/prediccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,34 +435,34 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>5683</v>
+        <v>4026</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>5684</v>
+        <v>4026</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>5613</v>
+        <v>5298</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>5618</v>
+        <v>5298</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>2546</v>
+        <v>6081</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5929</v>
+        <v>6081</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>5326</v>
+        <v>5470</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>5320</v>
+        <v>5470</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>5040</v>
+        <v>4899</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>5908</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="2">
@@ -472,34 +472,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.06780716936873</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.06780716936873</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.06780716936873</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.06780716936873</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.06780716936873</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.06780716936873</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.06780716936873</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1307927838117151</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.06780716936873</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.06780716936873</v>
+        <v>0.1220388725362846</v>
       </c>
     </row>
     <row r="3">
@@ -509,737 +509,478 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2743823091884772</v>
+        <v>-1.080929085107801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2743823091884772</v>
+        <v>-1.080929085107801</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4537231718118806</v>
+        <v>-0.2214494587306361</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8398259274121593</v>
+        <v>-0.2214494587306361</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7170804734503078</v>
+        <v>-0.4324126397504857</v>
       </c>
       <c r="G3" t="n">
-        <v>1.258099288837897</v>
+        <v>-0.4324126397504857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2201616882629187</v>
+        <v>-0.760577588003585</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8785549423589867</v>
+        <v>-0.760577588003585</v>
       </c>
       <c r="J3" t="n">
-        <v>1.258099288837897</v>
+        <v>-1.745072432762883</v>
       </c>
       <c r="K3" t="n">
-        <v>1.258099288837897</v>
+        <v>-1.745072432762883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PayRate2</t>
+          <t>HispanicLatino_No</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.02692191987003</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.02692191987003</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8376142251738741</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6483065304777178</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.02692191987003</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9795949961959912</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02391143933833</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4589988357815615</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.9638193549713115</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2696911410854052</v>
+        <v>0.3372073848595633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RecruitmentSource_Billboard</t>
+          <t>HispanicLatino_Yes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2767791245824498</v>
+        <v>-0.3372073848595634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RecruitmentSource_Diversity Job Fair</t>
+          <t>PayRate2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-1.080520948074444</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-1.080520948074444</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.4823753481488854</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.4823753481488854</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.5768193902423946</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3126850697072445</v>
+        <v>-0.5768193902423946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RecruitmentSource_Employee Referral</t>
+          <t>RaceDesc_Asian</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="C7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="D7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="E7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="F7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="G7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="H7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="I7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.343500400815464</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="K7" t="n">
-        <v>2.911204754422462</v>
+        <v>-0.3102165527876147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RecruitmentSource_Monster.com</t>
+          <t>RaceDesc_Black or African American</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3942810575851344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RecruitmentSource_Pay Per Click - Google</t>
+          <t>RaceDesc_White</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>-1.430563395277181</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>-1.430563395277181</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2929470826941439</v>
+        <v>0.6990252954195317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RecruitmentSource_Search Engine - Google Bing Yahoo</t>
+          <t>antiguedad_dias</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.324507056580266</v>
+        <v>1.532531479502893</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.324507056580266</v>
+        <v>1.532531479502893</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-0.3360786743221111</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-0.3360786743221111</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-1.250583298643565</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-1.250583298643565</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-0.674067795294894</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-0.674067795294894</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-0.1518884176611939</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.324507056580266</v>
+        <v>-0.1518884176611939</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>State_MA</t>
+          <t>avg_perf</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3631692331295312</v>
+        <v>0.9100115324990344</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3631692331295312</v>
+        <v>0.9100115324990344</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3631692331295312</v>
+        <v>0.1221449605272178</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3631692331295312</v>
+        <v>0.1221449605272178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3631692331295312</v>
+        <v>1.214400419701738</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3631692331295312</v>
+        <v>1.214400419701738</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3631692331295312</v>
+        <v>1.279456512398683</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3631692331295312</v>
+        <v>1.279456512398683</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3631692331295312</v>
+        <v>1.410643515247327</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3631692331295312</v>
+        <v>1.410643515247327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>antiguedad_dias</t>
+          <t>dias_lst_mov</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.593406004994972</v>
+        <v>4.495285550458155</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.593406004994972</v>
+        <v>4.495285550458155</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.306502142364071</v>
+        <v>3.936716743505942</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.305473813107329</v>
+        <v>3.936716743505942</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5372922149735806</v>
+        <v>2.488224752595968</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.609859273102837</v>
+        <v>2.488224752595968</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.093637986218564</v>
+        <v>4.201800245110381</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.8756321837893493</v>
+        <v>4.201800245110381</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.6432297717657524</v>
+        <v>4.495285550458155</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.761023673843849</v>
+        <v>4.495285550458155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>avg_perf</t>
+          <t>edad_dias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4675315407537389</v>
+        <v>3.812183760641624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2800881205505384</v>
+        <v>3.812183760641624</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7631956960131933</v>
+        <v>2.558946808944615</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3530358420976562</v>
+        <v>2.558946808944615</v>
       </c>
       <c r="F13" t="n">
-        <v>1.141748195374275</v>
+        <v>1.131158445081939</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.809492352839335</v>
+        <v>1.131158445081939</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7132071390037067</v>
+        <v>0.598803005259456</v>
       </c>
       <c r="I13" t="n">
-        <v>1.001030351130511</v>
+        <v>0.598803005259456</v>
       </c>
       <c r="J13" t="n">
-        <v>1.342848131299156</v>
+        <v>1.130631099425849</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03663676217289585</v>
+        <v>1.130631099425849</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>dias_lst_mov</t>
+          <t>perf_2022</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8115046179084897</v>
+        <v>-1.97152284035007</v>
       </c>
       <c r="C14" t="n">
-        <v>1.2018499252216</v>
+        <v>-1.97152284035007</v>
       </c>
       <c r="D14" t="n">
-        <v>0.978953883261557</v>
+        <v>-2.24713655559593</v>
       </c>
       <c r="E14" t="n">
-        <v>1.170799730321694</v>
+        <v>-2.24713655559593</v>
       </c>
       <c r="F14" t="n">
-        <v>1.2018499252216</v>
+        <v>-2.36960354941846</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6412009291942797</v>
+        <v>-2.36960354941846</v>
       </c>
       <c r="H14" t="n">
-        <v>1.2018499252216</v>
+        <v>-2.375236765661982</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2018499252216</v>
+        <v>-2.375236765661982</v>
       </c>
       <c r="J14" t="n">
-        <v>1.2018499252216</v>
+        <v>-1.280711984902608</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.7088459966547903</v>
+        <v>-1.280711984902608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>edad_dias</t>
+          <t>pred_perf_2024</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.888606994598301</v>
+        <v>43.71535181592</v>
       </c>
       <c r="C15" t="n">
-        <v>1.888606994598301</v>
+        <v>43.71535181592</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3393042819268424</v>
+        <v>43.8627680108341</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07090917529489482</v>
+        <v>43.8627680108341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04291560603566866</v>
+        <v>44.03258332615555</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2752420753528441</v>
+        <v>44.03258332615555</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.8655295502132573</v>
+        <v>44.09396681382764</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6022823316024574</v>
+        <v>44.09396681382764</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9798926694141905</v>
+        <v>44.20261619065626</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4202904531648521</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>perf_2022</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-2.167859420244577</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-1.333881492091681</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-1.57391990830638</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-1.503599593521463</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-2.251050910304693</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1.213386146761443</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-2.42609723874848</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-2.143548783095175</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-2.364236760149985</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-2.306534430136351</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>position_Area Sales Manager</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.3208987904477428</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>position_Others</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.2702235246360277</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>position_Production Manager</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.419209404939517</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.2262848189276259</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>position_Production Technician I</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.8732847546054282</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.1451018636548</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.8732847546054282</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>position_Production Technician II</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-0.4590801164710964</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>pred_perf_2024</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>44.32375577627168</v>
-      </c>
-      <c r="C22" t="n">
-        <v>44.83879858276652</v>
-      </c>
-      <c r="D22" t="n">
-        <v>44.93075085398488</v>
-      </c>
-      <c r="E22" t="n">
-        <v>44.95205298915827</v>
-      </c>
-      <c r="F22" t="n">
-        <v>44.95403108702286</v>
-      </c>
-      <c r="G22" t="n">
-        <v>45.0640611920961</v>
-      </c>
-      <c r="H22" t="n">
-        <v>45.06613591133658</v>
-      </c>
-      <c r="I22" t="n">
-        <v>45.08388267678593</v>
-      </c>
-      <c r="J22" t="n">
-        <v>45.13196216980194</v>
-      </c>
-      <c r="K22" t="n">
-        <v>45.2165125294585</v>
+        <v>44.20261619065626</v>
       </c>
     </row>
   </sheetData>

--- a/salidas/prediccion.xlsx
+++ b/salidas/prediccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,551 +435,588 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>4026</v>
+        <v>5647</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>4026</v>
+        <v>5646</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>5298</v>
+        <v>7529</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>5298</v>
+        <v>7528</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>6081</v>
+        <v>8625</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>6081</v>
+        <v>8624</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>5470</v>
+        <v>7726</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>5470</v>
+        <v>7727</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>4899</v>
+        <v>6980</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>4899</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>EmpSatisfaction</t>
+          <t>EmpID2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.078869469417015</v>
+        <v>4026</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.078869469417015</v>
+        <v>4026</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1220388725362846</v>
+        <v>5298</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1220388725362846</v>
+        <v>5298</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.078869469417015</v>
+        <v>6081</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.078869469417015</v>
+        <v>6081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1220388725362846</v>
+        <v>5470</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1220388725362846</v>
+        <v>5470</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1220388725362846</v>
+        <v>4899</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1220388725362846</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>EngagementSurvey</t>
+          <t>EmpSatisfaction</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.080929085107801</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.080929085107801</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2214494587306361</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2214494587306361</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4324126397504857</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4324126397504857</v>
+        <v>-1.078869469417015</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.760577588003585</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.760577588003585</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.745072432762883</v>
+        <v>0.1220388725362846</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.745072432762883</v>
+        <v>0.1220388725362846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>HispanicLatino_No</t>
+          <t>EngagementSurvey</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.965534104232235</v>
+        <v>-1.080929085107801</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.965534104232235</v>
+        <v>-1.080929085107801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3372073848595633</v>
+        <v>-0.2214494587306361</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3372073848595633</v>
+        <v>-0.2214494587306361</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.965534104232235</v>
+        <v>-0.4324126397504857</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.965534104232235</v>
+        <v>-0.4324126397504857</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3372073848595633</v>
+        <v>-0.760577588003585</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3372073848595633</v>
+        <v>-0.760577588003585</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3372073848595633</v>
+        <v>-1.745072432762883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3372073848595633</v>
+        <v>-1.745072432762883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HispanicLatino_Yes</t>
+          <t>HispanicLatino_No</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.965534104232235</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="C5" t="n">
-        <v>2.965534104232235</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3372073848595634</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3372073848595634</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="F5" t="n">
-        <v>2.965534104232235</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="G5" t="n">
-        <v>2.965534104232235</v>
+        <v>-2.965534104232235</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3372073848595634</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3372073848595634</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3372073848595634</v>
+        <v>0.3372073848595633</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3372073848595634</v>
+        <v>0.3372073848595633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>PayRate2</t>
+          <t>HispanicLatino_Yes</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6397820849714008</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6397820849714008</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.080520948074444</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.080520948074444</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4823753481488854</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4823753481488854</v>
+        <v>2.965534104232235</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6397820849714008</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6397820849714008</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5768193902423946</v>
+        <v>-0.3372073848595634</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.5768193902423946</v>
+        <v>-0.3372073848595634</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RaceDesc_Asian</t>
+          <t>PayRate2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-1.080520948074444</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-1.080520948074444</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.4823753481488854</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.4823753481488854</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.6397820849714008</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.5768193902423946</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.3102165527876147</v>
+        <v>-0.5768193902423946</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RaceDesc_Black or African American</t>
+          <t>RaceDesc_Asian</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.3942810575851344</v>
+        <v>-0.3102165527876147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RaceDesc_White</t>
+          <t>RaceDesc_Black or African American</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.430563395277181</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.430563395277181</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6990252954195317</v>
+        <v>-0.3942810575851344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>antiguedad_dias</t>
+          <t>RaceDesc_White</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.532531479502893</v>
+        <v>-1.430563395277181</v>
       </c>
       <c r="C10" t="n">
-        <v>1.532531479502893</v>
+        <v>-1.430563395277181</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3360786743221111</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3360786743221111</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.250583298643565</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.250583298643565</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.674067795294894</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.674067795294894</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1518884176611939</v>
+        <v>0.6990252954195317</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1518884176611939</v>
+        <v>0.6990252954195317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>avg_perf</t>
+          <t>antiguedad_dias</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9100115324990344</v>
+        <v>1.532531479502893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9100115324990344</v>
+        <v>1.532531479502893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1221449605272178</v>
+        <v>-0.3360786743221111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1221449605272178</v>
+        <v>-0.3360786743221111</v>
       </c>
       <c r="F11" t="n">
-        <v>1.214400419701738</v>
+        <v>-1.250583298643565</v>
       </c>
       <c r="G11" t="n">
-        <v>1.214400419701738</v>
+        <v>-1.250583298643565</v>
       </c>
       <c r="H11" t="n">
-        <v>1.279456512398683</v>
+        <v>-0.674067795294894</v>
       </c>
       <c r="I11" t="n">
-        <v>1.279456512398683</v>
+        <v>-0.674067795294894</v>
       </c>
       <c r="J11" t="n">
-        <v>1.410643515247327</v>
+        <v>-0.1518884176611939</v>
       </c>
       <c r="K11" t="n">
-        <v>1.410643515247327</v>
+        <v>-0.1518884176611939</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dias_lst_mov</t>
+          <t>avg_perf</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.495285550458155</v>
+        <v>0.9100115324990344</v>
       </c>
       <c r="C12" t="n">
-        <v>4.495285550458155</v>
+        <v>0.9100115324990344</v>
       </c>
       <c r="D12" t="n">
-        <v>3.936716743505942</v>
+        <v>0.1221449605272178</v>
       </c>
       <c r="E12" t="n">
-        <v>3.936716743505942</v>
+        <v>0.1221449605272178</v>
       </c>
       <c r="F12" t="n">
-        <v>2.488224752595968</v>
+        <v>1.214400419701738</v>
       </c>
       <c r="G12" t="n">
-        <v>2.488224752595968</v>
+        <v>1.214400419701738</v>
       </c>
       <c r="H12" t="n">
-        <v>4.201800245110381</v>
+        <v>1.279456512398683</v>
       </c>
       <c r="I12" t="n">
-        <v>4.201800245110381</v>
+        <v>1.279456512398683</v>
       </c>
       <c r="J12" t="n">
-        <v>4.495285550458155</v>
+        <v>1.410643515247327</v>
       </c>
       <c r="K12" t="n">
-        <v>4.495285550458155</v>
+        <v>1.410643515247327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>edad_dias</t>
+          <t>dias_lst_mov</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.812183760641624</v>
+        <v>4.495285550458155</v>
       </c>
       <c r="C13" t="n">
-        <v>3.812183760641624</v>
+        <v>4.495285550458155</v>
       </c>
       <c r="D13" t="n">
-        <v>2.558946808944615</v>
+        <v>3.936716743505942</v>
       </c>
       <c r="E13" t="n">
-        <v>2.558946808944615</v>
+        <v>3.936716743505942</v>
       </c>
       <c r="F13" t="n">
-        <v>1.131158445081939</v>
+        <v>2.488224752595968</v>
       </c>
       <c r="G13" t="n">
-        <v>1.131158445081939</v>
+        <v>2.488224752595968</v>
       </c>
       <c r="H13" t="n">
-        <v>0.598803005259456</v>
+        <v>4.201800245110381</v>
       </c>
       <c r="I13" t="n">
-        <v>0.598803005259456</v>
+        <v>4.201800245110381</v>
       </c>
       <c r="J13" t="n">
-        <v>1.130631099425849</v>
+        <v>4.495285550458155</v>
       </c>
       <c r="K13" t="n">
-        <v>1.130631099425849</v>
+        <v>4.495285550458155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>perf_2022</t>
+          <t>edad_dias</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.97152284035007</v>
+        <v>3.812183760641624</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.97152284035007</v>
+        <v>3.812183760641624</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.24713655559593</v>
+        <v>2.558946808944615</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.24713655559593</v>
+        <v>2.558946808944615</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.36960354941846</v>
+        <v>1.131158445081939</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.36960354941846</v>
+        <v>1.131158445081939</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.375236765661982</v>
+        <v>0.598803005259456</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.375236765661982</v>
+        <v>0.598803005259456</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.280711984902608</v>
+        <v>1.130631099425849</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.280711984902608</v>
+        <v>1.130631099425849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>perf_2022</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.97152284035007</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.97152284035007</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.24713655559593</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2.24713655559593</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-2.36960354941846</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2.36960354941846</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-2.375236765661982</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.375236765661982</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1.280711984902608</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1.280711984902608</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>pred_perf_2024</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>43.71535181592</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>43.71535181592</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>43.8627680108341</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>43.8627680108341</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>44.03258332615555</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>44.03258332615555</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>44.09396681382764</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>44.09396681382764</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>44.20261619065626</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>44.20261619065626</v>
       </c>
     </row>
